--- a/conversor_nominas_bancos_chile/planillas_test/datos_empresas.xlsx
+++ b/conversor_nominas_bancos_chile/planillas_test/datos_empresas.xlsx
@@ -242,8 +242,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6:F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,6 +433,7 @@
         <v>33</v>
       </c>
     </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -467,7 +468,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F6:F8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/conversor_nominas_bancos_chile/planillas_test/datos_empresas.xlsx
+++ b/conversor_nominas_bancos_chile/planillas_test/datos_empresas.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">abasto</t>
   </si>
   <si>
-    <t xml:space="preserve">762345312-2</t>
+    <t xml:space="preserve">76234531-2</t>
   </si>
   <si>
     <t xml:space="preserve">no_aplica</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">losandes</t>
   </si>
   <si>
-    <t xml:space="preserve">987654321-1</t>
+    <t xml:space="preserve">98765432-1</t>
   </si>
   <si>
     <t xml:space="preserve">811 - Pago remuneraciones, 812 - Pago proveedores</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">elegance</t>
   </si>
   <si>
-    <t xml:space="preserve">156789013-3</t>
+    <t xml:space="preserve">15678901-3</t>
   </si>
   <si>
     <t xml:space="preserve">812 - Pago proveedores</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">belleza</t>
   </si>
   <si>
-    <t xml:space="preserve">230912837-4</t>
+    <t xml:space="preserve">23091283-7</t>
   </si>
   <si>
     <t xml:space="preserve">Tecnología e Innovación S.A.</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">tecinnova</t>
   </si>
   <si>
-    <t xml:space="preserve">165432198-7</t>
+    <t xml:space="preserve">16543219-8</t>
   </si>
   <si>
     <t xml:space="preserve">Servicios de Limpieza Industrial S.A.</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">limpind</t>
   </si>
   <si>
-    <t xml:space="preserve">875432019-0</t>
+    <t xml:space="preserve">87543201-9</t>
   </si>
   <si>
     <t xml:space="preserve">Consultora Empresarial Integrar Limitada</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">integrar</t>
   </si>
   <si>
-    <t xml:space="preserve">782356789-2</t>
+    <t xml:space="preserve">78235678-9</t>
   </si>
   <si>
     <t xml:space="preserve">Inmobiliaria Santa María Limitada</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">santamaria</t>
   </si>
   <si>
-    <t xml:space="preserve">245632189-5</t>
+    <t xml:space="preserve">24563218-9</t>
   </si>
   <si>
     <t xml:space="preserve">813 – Pago remuneraciones</t>
@@ -243,7 +243,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
